--- a/docs/planning.xlsx
+++ b/docs/planning.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>UDP datagrams</t>
   </si>
@@ -93,6 +93,30 @@
   </si>
   <si>
     <t>Maintain message during election/sequencer crashed</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Does new client receive all previous messages?</t>
+  </si>
+  <si>
+    <t>Vector clock for total ordering?</t>
+  </si>
+  <si>
+    <t>Implement snapshot in the beginning?</t>
+  </si>
+  <si>
+    <t>Input message GUI vs. back-end communication different thread?</t>
+  </si>
+  <si>
+    <t>Non-blocking IO</t>
+  </si>
+  <si>
+    <t>Multi-thread: 1 display - 1 backend (stdout thread-safe) - n threads for each message sent</t>
+  </si>
+  <si>
+    <t>Limit number of messages sent in queue</t>
   </si>
 </sst>
 </file>
@@ -407,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,6 +552,46 @@
         <v>21</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
